--- a/RB-Blessing/T-Tabelle.xlsx
+++ b/RB-Blessing/T-Tabelle.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC6E619-8452-4A0D-8B77-FBCE586F6BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tabelle" sheetId="1" r:id="rId1"/>
@@ -25,11 +24,8 @@
     <definedName name="L">#REF!</definedName>
     <definedName name="Tabelle1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -103,24 +99,6 @@
     </r>
   </si>
   <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
     <t>SUMME</t>
   </si>
   <si>
@@ -133,37 +111,55 @@
     <t>S3-Lebensdauer &gt; 30000h</t>
   </si>
   <si>
-    <t>S4-Im freien Benutzbar</t>
-  </si>
-  <si>
     <t>S5-Netzbetrieb des Motors möglich</t>
   </si>
   <si>
     <t>S6-Niedriger Stromverbrauch</t>
   </si>
   <si>
-    <t>Beförderung von Objekten</t>
-  </si>
-  <si>
-    <t>Variable Einsatzbedingungen</t>
-  </si>
-  <si>
-    <t>Stufenloser Betrieb</t>
-  </si>
-  <si>
-    <t>Niedrige Betriebskosten</t>
-  </si>
-  <si>
     <t>S7-Regelbare Geschwindigkeit</t>
   </si>
   <si>
-    <t>Platzierung auf verschiedenen Höhen möglich</t>
+    <t>Welle</t>
+  </si>
+  <si>
+    <t>Wellenlagerung</t>
+  </si>
+  <si>
+    <t>Abdichtung</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Trommel</t>
+  </si>
+  <si>
+    <t>Befestigung Trum - Band</t>
+  </si>
+  <si>
+    <t>Verbindung Welle - Trommel</t>
+  </si>
+  <si>
+    <t>Kettentrieb</t>
+  </si>
+  <si>
+    <t>Lagerböcke</t>
+  </si>
+  <si>
+    <t>Gehäuse</t>
+  </si>
+  <si>
+    <t>S4-Im freien benutzbar</t>
+  </si>
+  <si>
+    <t>Befestigung auf dem Untergrund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -172,6 +168,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -209,6 +206,7 @@
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -484,6 +482,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
@@ -493,6 +500,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -516,21 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
@@ -544,7 +542,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -850,11 +848,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -869,13 +868,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -893,7 +892,7 @@
       <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
@@ -903,71 +902,71 @@
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="35"/>
       <c r="W2"/>
     </row>
     <row r="3" spans="1:24" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="B3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
       <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:24" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,23 +1003,23 @@
       <c r="K4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
       <c r="W4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7">
@@ -1053,7 +1052,7 @@
         <v>4.4186046511627906</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -1067,12 +1066,12 @@
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="20"/>
-      <c r="X5" s="23" t="s">
+      <c r="X5" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -1117,10 +1116,10 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="24"/>
+      <c r="X6" s="27"/>
     </row>
     <row r="7" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="13">
         <v>0</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>3.7209302325581395</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -1165,10 +1164,10 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="24"/>
+      <c r="X7" s="27"/>
     </row>
     <row r="8" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="7">
         <v>0</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>5.6976744186046515</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -1213,10 +1212,10 @@
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="24"/>
+      <c r="X8" s="27"/>
     </row>
     <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="7">
         <v>0</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>2.7906976744186047</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -1261,10 +1260,10 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="24"/>
+      <c r="X9" s="27"/>
     </row>
     <row r="10" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1281,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -1295,10 +1294,10 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="24"/>
+      <c r="X10" s="27"/>
     </row>
     <row r="11" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1315,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1329,10 +1328,10 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="24"/>
+      <c r="X11" s="27"/>
     </row>
     <row r="12" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1349,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1363,10 +1362,10 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="24"/>
+      <c r="X12" s="27"/>
     </row>
     <row r="13" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1383,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -1397,10 +1396,10 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="24"/>
+      <c r="X13" s="27"/>
     </row>
     <row r="14" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1417,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -1431,10 +1430,10 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="21"/>
-      <c r="X14" s="24"/>
+      <c r="X14" s="27"/>
     </row>
     <row r="15" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="13"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1451,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -1465,11 +1464,11 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="22"/>
-      <c r="X15" s="25"/>
+      <c r="X15" s="28"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B5:B15)</f>
@@ -1548,17 +1547,11 @@
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="X5:X15"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:V2"/>
@@ -1570,6 +1563,12 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="X5:X15"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RB-Blessing/T-Tabelle.xlsx
+++ b/RB-Blessing/T-Tabelle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D160E10-82B7-4178-8A99-E7C60A1622C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tabelle" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="L">#REF!</definedName>
     <definedName name="Tabelle1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Spezifikationen</t>
   </si>
@@ -43,18 +44,6 @@
   </si>
   <si>
     <t>Funktionen</t>
-  </si>
-  <si>
-    <t>WP1</t>
-  </si>
-  <si>
-    <t>WP2</t>
-  </si>
-  <si>
-    <t>WP3</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Gewichtung (aus Paarweisem Vergleich)</t>
@@ -102,24 +91,6 @@
     <t>SUMME</t>
   </si>
   <si>
-    <t>S1-Betrieb bei Hohen Temperaturen (bis 40°C)</t>
-  </si>
-  <si>
-    <t>S2-Motorleistung hoch (&gt;2kW)</t>
-  </si>
-  <si>
-    <t>S3-Lebensdauer &gt; 30000h</t>
-  </si>
-  <si>
-    <t>S5-Netzbetrieb des Motors möglich</t>
-  </si>
-  <si>
-    <t>S6-Niedriger Stromverbrauch</t>
-  </si>
-  <si>
-    <t>S7-Regelbare Geschwindigkeit</t>
-  </si>
-  <si>
     <t>Welle</t>
   </si>
   <si>
@@ -129,9 +100,6 @@
     <t>Abdichtung</t>
   </si>
   <si>
-    <t>Motor</t>
-  </si>
-  <si>
     <t>Trommel</t>
   </si>
   <si>
@@ -144,23 +112,107 @@
     <t>Kettentrieb</t>
   </si>
   <si>
-    <t>Lagerböcke</t>
-  </si>
-  <si>
     <t>Gehäuse</t>
   </si>
   <si>
-    <t>S4-Im freien benutzbar</t>
-  </si>
-  <si>
     <t>Befestigung auf dem Untergrund</t>
+  </si>
+  <si>
+    <t>Wellenauslegung</t>
+  </si>
+  <si>
+    <t>Ausarbeitung eines Dichtungskonzepts</t>
+  </si>
+  <si>
+    <t>Auslegung der Schweißnähte an der Trommel</t>
+  </si>
+  <si>
+    <t>Kettenradauslegung</t>
+  </si>
+  <si>
+    <t>Keilwellenberechnung</t>
+  </si>
+  <si>
+    <t>Kerbwirkungsberechnung</t>
+  </si>
+  <si>
+    <t>Zeichnungserstellung</t>
+  </si>
+  <si>
+    <t>Motor Auswahl</t>
+  </si>
+  <si>
+    <t>Untergrund Konstruktion</t>
+  </si>
+  <si>
+    <t>Auslegen des Spannpressverbandes</t>
+  </si>
+  <si>
+    <t>Betrieb bei niedrigen Temperaturen (bis - 10°C)</t>
+  </si>
+  <si>
+    <t>Rostfreier Stahl</t>
+  </si>
+  <si>
+    <t>Kompakte (Kettenlänge &lt; 1000mm)</t>
+  </si>
+  <si>
+    <t>Betrieb bei Hohen Temperaturen (bis 40°C)</t>
+  </si>
+  <si>
+    <t>Motorleistung hoch (&gt;2kW)</t>
+  </si>
+  <si>
+    <t>Lebensdauer &gt; 30000h</t>
+  </si>
+  <si>
+    <t>Netzbetrieb des Motors möglich</t>
+  </si>
+  <si>
+    <t>Im freien benutzbar</t>
+  </si>
+  <si>
+    <t>Niedriger Stromverbrauch &gt;2kWh)</t>
+  </si>
+  <si>
+    <t>Regelbare Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>Hohe Komplexität, Hohe Kosten</t>
+  </si>
+  <si>
+    <t>Motor -&gt; Wichtige, Komplexe Baugruppe (Kundenanforderung)</t>
+  </si>
+  <si>
+    <t>Lagerböcke -&gt; Basis Funktion, daher nicht von den Wunschspezifikationen abgedeckt</t>
+  </si>
+  <si>
+    <t>3 = günstig und einfach umzusetzen</t>
+  </si>
+  <si>
+    <t>Bandauswahl</t>
+  </si>
+  <si>
+    <t>Konstruktion Gehäuse</t>
+  </si>
+  <si>
+    <t>Aufwendigste Arbeitspaket</t>
+  </si>
+  <si>
+    <t>5 = Relativ wenig Aufwand</t>
+  </si>
+  <si>
+    <t>benötigt am meisten Kommunikation zwischen Projektteams</t>
+  </si>
+  <si>
+    <t>unabhängig von anderen Funktionen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -220,6 +272,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -409,12 +466,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -449,9 +526,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -473,15 +547,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -491,6 +556,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
@@ -500,36 +568,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -538,11 +606,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -848,39 +940,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" customWidth="1"/>
-    <col min="12" max="22" width="5.28515625" style="17" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="17" customWidth="1"/>
+    <col min="2" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" customWidth="1"/>
+    <col min="15" max="26" width="5.28515625" style="16" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="16" customWidth="1"/>
+    <col min="29" max="29" width="32" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -889,89 +985,126 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="18"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="17"/>
+      <c r="AC1" s="17"/>
     </row>
-    <row r="2" spans="1:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="35"/>
-      <c r="W2"/>
+    <row r="2" spans="1:29" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2"/>
+      <c r="AC2"/>
     </row>
-    <row r="3" spans="1:24" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="K3" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="19"/>
+      <c r="P3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AC3" s="18"/>
     </row>
-    <row r="4" spans="1:24" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -986,590 +1119,1147 @@
         <v>8</v>
       </c>
       <c r="F4" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="5">
         <v>7</v>
       </c>
       <c r="H4" s="5">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6</v>
+      </c>
+      <c r="J4" s="5">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="44"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B5:I5)</f>
+        <v>48</v>
+      </c>
+      <c r="M5" s="9">
+        <f>L5/MAX(L$5:L$15)*10</f>
+        <v>2.9629629629629628</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>0</v>
+      </c>
+      <c r="U5" s="11">
+        <v>2</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="41">
+        <f>SUM(O5:Z5)</f>
+        <v>5</v>
+      </c>
+      <c r="AB5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="AC5" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B6:I6)</f>
+        <v>80</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" ref="M6:M15" si="0">L6/MAX(L$5:L$15)*10</f>
+        <v>4.9382716049382713</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="11">
+        <v>3</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1</v>
+      </c>
+      <c r="S6" s="11">
+        <v>3</v>
+      </c>
+      <c r="T6" s="11">
+        <v>3</v>
+      </c>
+      <c r="U6" s="11">
+        <v>2</v>
+      </c>
+      <c r="V6" s="11">
+        <v>0</v>
+      </c>
+      <c r="W6" s="11">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="41">
+        <f t="shared" ref="AA6:AA15" si="1">SUM(O6:Z6)</f>
+        <v>15</v>
+      </c>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B7:I7)</f>
+        <v>82</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.0617283950617287</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="11">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>2</v>
+      </c>
+      <c r="U7" s="11">
+        <v>2</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>1</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="41">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="42"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B8:I8)</f>
+        <v>79</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8765432098765435</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
+      <c r="T8" s="11">
+        <v>1</v>
+      </c>
+      <c r="U8" s="11">
+        <v>2</v>
+      </c>
+      <c r="V8" s="11">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="41">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="42"/>
+    </row>
+    <row r="9" spans="1:29" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B9:I9)</f>
+        <v>162</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1</v>
+      </c>
+      <c r="U9" s="11">
+        <v>2</v>
+      </c>
+      <c r="V9" s="11">
+        <v>3</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+      <c r="X9" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="41">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="42"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B10:I10)</f>
+        <v>43</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6543209876543212</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="11">
+        <v>3</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>3</v>
+      </c>
+      <c r="R10" s="11">
+        <v>3</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <v>2</v>
+      </c>
+      <c r="U10" s="11">
+        <v>2</v>
+      </c>
+      <c r="V10" s="11">
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="41">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="42"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B11:I11)</f>
+        <v>14</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.86419753086419748</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>3</v>
+      </c>
+      <c r="R11" s="11">
+        <v>3</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>2</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="41">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="42"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B12:I12)</f>
+        <v>57</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5185185185185186</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
+        <v>1</v>
+      </c>
+      <c r="U12" s="11">
+        <v>2</v>
+      </c>
+      <c r="V12" s="11">
+        <v>3</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="41">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="42"/>
+    </row>
+    <row r="13" spans="1:29" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B13:I13)</f>
+        <v>8</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>2</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2</v>
+      </c>
+      <c r="W13" s="11">
+        <v>3</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="41">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="42"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12">
+        <v>2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B14:I14)</f>
+        <v>63</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="0"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0</v>
+      </c>
+      <c r="U14" s="11">
+        <v>2</v>
+      </c>
+      <c r="V14" s="11">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+      <c r="X14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="41">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="42"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <f>SUMPRODUCT(B$4:I$4,B15:I15)</f>
+        <v>47</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9012345679012346</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>2</v>
+      </c>
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>3</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="41">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="13">
+        <f>SUM(B5:B15)</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" ref="C16:K16" si="2">SUM(C5:C15)</f>
         <v>10</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <f>SUMPRODUCT(B$4:G$4,B5:G5)</f>
-        <v>38</v>
-      </c>
-      <c r="J5" s="9">
-        <f>I5/MAX(I$5:I$15)*10</f>
-        <v>4.4186046511627906</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="26" t="s">
+      <c r="D16" s="13">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="13">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" ref="I6:I14" si="0">SUMPRODUCT(B$4:G$4,B6:G6)</f>
-        <v>86</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" ref="J6:J15" si="1">I6/MAX(I$5:I$15)*10</f>
-        <v>10</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="27"/>
-    </row>
-    <row r="7" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="1"/>
-        <v>3.7209302325581395</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="H16" s="13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="27"/>
-    </row>
-    <row r="8" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="1"/>
-        <v>5.6976744186046515</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="27"/>
-    </row>
-    <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>3</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="1"/>
-        <v>2.7906976744186047</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="27"/>
-    </row>
-    <row r="10" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="27"/>
-    </row>
-    <row r="11" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="27"/>
-    </row>
-    <row r="12" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="27"/>
-    </row>
-    <row r="14" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="27"/>
-    </row>
-    <row r="15" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <f>SUMPRODUCT(B$4:G$4,B15:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="28"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="14">
-        <f>SUM(B5:B15)</f>
-        <v>3</v>
-      </c>
-      <c r="C16" s="14">
-        <f t="shared" ref="C16:H16" si="2">SUM(C5:C15)</f>
-        <v>6</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="K16" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G16" s="14">
-        <f t="shared" si="2"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15">
+        <f>SUM(O5:O15)</f>
+        <v>15</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" ref="P16:Z16" si="3">SUM(P5:P15)</f>
+        <v>10</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H16" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16">
-        <f>SUM(L5:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="16">
-        <f t="shared" ref="M16:V16" si="3">SUM(M5:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="16">
+      <c r="T16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
+        <v>10</v>
+      </c>
+      <c r="U16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="16">
+        <v>22</v>
+      </c>
+      <c r="V16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
+        <v>8</v>
+      </c>
+      <c r="W16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="16">
+        <v>7</v>
+      </c>
+      <c r="X16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="16">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="16">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC16" s="45"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="AB5:AB15"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="A5:A15"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:V2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="X5:X15"/>
-    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RB-Blessing/T-Tabelle.xlsx
+++ b/RB-Blessing/T-Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF50E49-D2D0-4453-950F-489BAB78AD6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B507DB3-7171-4D5E-8C4E-A1A0EC6C9A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-Tabelle" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -523,82 +529,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
@@ -609,61 +664,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -977,8 +977,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="112" zoomScaleNormal="140" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="L32" sqref="K32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -987,1273 +987,1273 @@
     <col min="2" max="12" width="6.140625" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="26" width="5.28515625" style="15" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="15" customWidth="1"/>
+    <col min="15" max="26" width="5.28515625" style="14" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="16"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="16"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="15"/>
     </row>
     <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="33"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
       <c r="AA3"/>
     </row>
     <row r="4" spans="1:28" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37" t="s">
+      <c r="L4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="W4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="37" t="s">
+      <c r="X4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="17"/>
+      <c r="AA4" s="16"/>
     </row>
     <row r="5" spans="1:28" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>7</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>6</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>6</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>6</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="5" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
         <f>SUMPRODUCT(B$5:K$5,B6:K6)</f>
         <v>60</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f>L6/MAX(L$6:L$16)*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10">
-        <v>2</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="24">
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>2</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="22">
         <f>SUM(O6:Z6)</f>
         <v>5</v>
       </c>
-      <c r="AB6" s="26" t="s">
+      <c r="AB6" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>3</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="A7" s="28"/>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
         <f t="shared" ref="L7:L16" si="0">SUMPRODUCT(B$5:K$5,B7:K7)</f>
         <v>98</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f t="shared" ref="M7:M16" si="1">L7/MAX(L$6:L$16)*10</f>
         <v>5.4444444444444438</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="10">
-        <v>3</v>
-      </c>
-      <c r="P7" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>1</v>
-      </c>
-      <c r="S7" s="10">
-        <v>3</v>
-      </c>
-      <c r="T7" s="10">
-        <v>3</v>
-      </c>
-      <c r="U7" s="10">
-        <v>2</v>
-      </c>
-      <c r="V7" s="10">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>0</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="24">
+      <c r="O7" s="9">
+        <v>3</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>3</v>
+      </c>
+      <c r="T7" s="9">
+        <v>3</v>
+      </c>
+      <c r="U7" s="9">
+        <v>2</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
         <f t="shared" ref="AA7:AA16" si="2">SUM(O7:Z7)</f>
         <v>15</v>
       </c>
-      <c r="AB7" s="27"/>
+      <c r="AB7" s="44"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="A8" s="28"/>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>4.8888888888888884</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="10">
-        <v>3</v>
-      </c>
-      <c r="P8" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
-        <v>2</v>
-      </c>
-      <c r="U8" s="10">
-        <v>2</v>
-      </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
-      <c r="W8" s="10">
-        <v>1</v>
-      </c>
-      <c r="X8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="24">
+      <c r="O8" s="9">
+        <v>3</v>
+      </c>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>2</v>
+      </c>
+      <c r="U8" s="9">
+        <v>2</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AB8" s="27"/>
+      <c r="AB8" s="44"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="A9" s="28"/>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="1"/>
         <v>4.3888888888888893</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="10">
-        <v>2</v>
-      </c>
-      <c r="P9" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
-        <v>1</v>
-      </c>
-      <c r="U9" s="10">
-        <v>2</v>
-      </c>
-      <c r="V9" s="10">
-        <v>0</v>
-      </c>
-      <c r="W9" s="10">
-        <v>0</v>
-      </c>
-      <c r="X9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="24">
+      <c r="O9" s="9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>2</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB9" s="27"/>
+      <c r="AB9" s="44"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11">
-        <v>2</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="A10" s="28"/>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="10">
-        <v>2</v>
-      </c>
-      <c r="V10" s="10">
-        <v>3</v>
-      </c>
-      <c r="W10" s="10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="10">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="24">
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>2</v>
+      </c>
+      <c r="V10" s="9">
+        <v>3</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB10" s="27"/>
+      <c r="AB10" s="44"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="A11" s="28"/>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
         <v>3.3888888888888893</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="10">
-        <v>3</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>3</v>
-      </c>
-      <c r="R11" s="10">
-        <v>3</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
-        <v>2</v>
-      </c>
-      <c r="U11" s="10">
-        <v>2</v>
-      </c>
-      <c r="V11" s="10">
-        <v>0</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0</v>
-      </c>
-      <c r="X11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="24">
+      <c r="O11" s="9">
+        <v>3</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>3</v>
+      </c>
+      <c r="R11" s="9">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>2</v>
+      </c>
+      <c r="U11" s="9">
+        <v>2</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="22">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AB11" s="27"/>
+      <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="A12" s="28"/>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="1"/>
         <v>1.4444444444444442</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="10">
-        <v>1</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>3</v>
-      </c>
-      <c r="R12" s="10">
-        <v>3</v>
-      </c>
-      <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
-        <v>0</v>
-      </c>
-      <c r="U12" s="10">
-        <v>2</v>
-      </c>
-      <c r="V12" s="10">
-        <v>0</v>
-      </c>
-      <c r="W12" s="10">
-        <v>0</v>
-      </c>
-      <c r="X12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="10">
-        <v>3</v>
-      </c>
-      <c r="AA12" s="24">
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>3</v>
+      </c>
+      <c r="R12" s="9">
+        <v>3</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>2</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="22">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AB12" s="27"/>
+      <c r="AB12" s="44"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
-        <v>3</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="A13" s="28"/>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="1"/>
         <v>5.166666666666667</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="10">
-        <v>1</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="10">
-        <v>0</v>
-      </c>
-      <c r="S13" s="10">
-        <v>1</v>
-      </c>
-      <c r="T13" s="10">
-        <v>1</v>
-      </c>
-      <c r="U13" s="10">
-        <v>2</v>
-      </c>
-      <c r="V13" s="10">
-        <v>3</v>
-      </c>
-      <c r="W13" s="10">
-        <v>0</v>
-      </c>
-      <c r="X13" s="10">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="24">
+      <c r="O13" s="9">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>1</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9">
+        <v>2</v>
+      </c>
+      <c r="V13" s="9">
+        <v>3</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB13" s="27"/>
+      <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="A14" s="28"/>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" si="1"/>
         <v>1.4444444444444442</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="10">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <v>0</v>
-      </c>
-      <c r="U14" s="10">
-        <v>2</v>
-      </c>
-      <c r="V14" s="10">
-        <v>2</v>
-      </c>
-      <c r="W14" s="10">
-        <v>3</v>
-      </c>
-      <c r="X14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="10">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="24">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>2</v>
+      </c>
+      <c r="V14" s="9">
+        <v>2</v>
+      </c>
+      <c r="W14" s="9">
+        <v>3</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB14" s="27"/>
+      <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="A15" s="28"/>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="1"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="10">
-        <v>1</v>
-      </c>
-      <c r="P15" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0</v>
-      </c>
-      <c r="R15" s="10">
-        <v>0</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0</v>
-      </c>
-      <c r="U15" s="10">
-        <v>2</v>
-      </c>
-      <c r="V15" s="10">
-        <v>0</v>
-      </c>
-      <c r="W15" s="10">
-        <v>0</v>
-      </c>
-      <c r="X15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="24">
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>2</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AB15" s="27"/>
+      <c r="AB15" s="44"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="A16" s="29"/>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="1"/>
         <v>2.9444444444444446</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0</v>
-      </c>
-      <c r="U16" s="10">
-        <v>2</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0</v>
-      </c>
-      <c r="W16" s="10">
-        <v>3</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="24">
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>2</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>3</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AB16" s="28"/>
+      <c r="AB16" s="45"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>SUM(B6:B16)</f>
         <v>13</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f t="shared" ref="C17:K17" si="3">SUM(C6:C16)</f>
         <v>10</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13">
         <f>SUM(O6:O16)</f>
         <v>15</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <f t="shared" ref="P17:Z17" si="4">SUM(P6:P16)</f>
         <v>10</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="13">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="13">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="13">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="13">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="13">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Y17" s="14">
+      <c r="Y17" s="13">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="13">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="4" t="s">
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/RB-Blessing/T-Tabelle.xlsx
+++ b/RB-Blessing/T-Tabelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B507DB3-7171-4D5E-8C4E-A1A0EC6C9A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AC33B0-CA65-4D4D-AF13-222610E7DC0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -109,9 +103,6 @@
     <t>Trommel</t>
   </si>
   <si>
-    <t>Befestigung Trum - Band</t>
-  </si>
-  <si>
     <t>Verbindung Welle - Trommel</t>
   </si>
   <si>
@@ -197,6 +188,9 @@
   </si>
   <si>
     <t>T-Tabelle</t>
+  </si>
+  <si>
+    <t>Befestigung Mitnehmer - Band</t>
   </si>
 </sst>
 </file>
@@ -607,6 +601,21 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
@@ -640,12 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -654,15 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,8 +971,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="112" zoomScaleNormal="140" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="L32" sqref="K32:L32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="112" zoomScaleNormal="140" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -994,7 +988,7 @@
     <row r="1" spans="1:28" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1053,109 +1047,109 @@
     </row>
     <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
-      <c r="B3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
+      <c r="B3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="39"/>
       <c r="AA3"/>
     </row>
     <row r="4" spans="1:28" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="K4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>38</v>
       </c>
       <c r="AA4" s="16"/>
     </row>
@@ -1202,24 +1196,24 @@
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
       <c r="AA5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5">
@@ -1261,7 +1255,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O6" s="9">
         <v>0</v>
@@ -1303,12 +1297,12 @@
         <f>SUM(O6:Z6)</f>
         <v>5</v>
       </c>
-      <c r="AB6" s="43" t="s">
+      <c r="AB6" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="10">
         <v>3</v>
       </c>
@@ -1390,10 +1384,10 @@
         <f t="shared" ref="AA7:AA16" si="2">SUM(O7:Z7)</f>
         <v>15</v>
       </c>
-      <c r="AB7" s="44"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1475,10 +1469,10 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AB8" s="44"/>
+      <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1560,10 +1554,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB9" s="44"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -1603,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="9">
         <v>1</v>
@@ -1645,10 +1639,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB10" s="44"/>
+      <c r="AB10" s="28"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -1688,7 +1682,7 @@
         <v>3.3888888888888893</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="9">
         <v>3</v>
@@ -1730,10 +1724,10 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AB11" s="44"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="10">
         <v>0</v>
       </c>
@@ -1815,10 +1809,10 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AB12" s="44"/>
+      <c r="AB12" s="28"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="5">
         <v>1</v>
       </c>
@@ -1858,7 +1852,7 @@
         <v>5.166666666666667</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O13" s="9">
         <v>1</v>
@@ -1900,10 +1894,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB13" s="44"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="10">
         <v>0</v>
       </c>
@@ -1943,7 +1937,7 @@
         <v>1.4444444444444442</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="9">
         <v>0</v>
@@ -1985,10 +1979,10 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB14" s="44"/>
+      <c r="AB14" s="28"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="9">
         <v>1</v>
@@ -2070,10 +2064,10 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AB15" s="44"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10">
         <v>0</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>2.9444444444444446</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" s="9">
         <v>0</v>
@@ -2155,7 +2149,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AB16" s="45"/>
+      <c r="AB16" s="29"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
@@ -2259,12 +2253,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AB6:AB16"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Z3"/>
@@ -2277,6 +2265,12 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="AB6:AB16"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/RB-Blessing/T-Tabelle.xlsx
+++ b/RB-Blessing/T-Tabelle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE3\RB-Blessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AC33B0-CA65-4D4D-AF13-222610E7DC0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82BFE5C-9D74-433C-9322-ED99E7EFD551}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,6 +601,54 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
@@ -609,54 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,35 +1047,35 @@
     </row>
     <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
-      <c r="B3" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="39"/>
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
       <c r="AA3"/>
     </row>
     <row r="4" spans="1:28" ht="162.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -1110,45 +1110,45 @@
       <c r="K4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="30" t="s">
+      <c r="L4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="38" t="s">
         <v>37</v>
       </c>
       <c r="AA4" s="16"/>
@@ -1196,24 +1196,24 @@
       <c r="N5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
       <c r="AA5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5">
@@ -1297,12 +1297,12 @@
         <f>SUM(O6:Z6)</f>
         <v>5</v>
       </c>
-      <c r="AB6" s="27" t="s">
+      <c r="AB6" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="33"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="10">
         <v>3</v>
       </c>
@@ -1384,10 +1384,10 @@
         <f t="shared" ref="AA7:AA16" si="2">SUM(O7:Z7)</f>
         <v>15</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="44"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="33"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="10">
         <v>2</v>
       </c>
@@ -1469,10 +1469,10 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AB8" s="28"/>
+      <c r="AB8" s="44"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -1554,10 +1554,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="44"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="5">
         <v>2</v>
       </c>
@@ -1639,10 +1639,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB10" s="28"/>
+      <c r="AB10" s="44"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -1724,10 +1724,10 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="44"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="10">
         <v>0</v>
       </c>
@@ -1809,10 +1809,10 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AB12" s="28"/>
+      <c r="AB12" s="44"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="5">
         <v>1</v>
       </c>
@@ -1894,10 +1894,10 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="44"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="10">
         <v>0</v>
       </c>
@@ -1979,10 +1979,10 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AB14" s="28"/>
+      <c r="AB14" s="44"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="5">
         <v>2</v>
       </c>
@@ -2064,10 +2064,10 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="44"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="10">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AB16" s="29"/>
+      <c r="AB16" s="45"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
@@ -2253,6 +2253,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AB6:AB16"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="A6:A16"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:Z3"/>
@@ -2265,12 +2271,6 @@
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="AB6:AB16"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="Y4:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
